--- a/TestsSaveExcel/BenGabrant.xlsx
+++ b/TestsSaveExcel/BenGabrant.xlsx
@@ -76,7 +76,7 @@
     <x:t>Score</x:t>
   </x:si>
   <x:si>
-    <x:t>Abstrait</x:t>
+    <x:t>Couleurs</x:t>
   </x:si>
   <x:si>
     <x:t>Moyenne des mouvements</x:t>
@@ -843,7 +843,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="3">
-        <x:v>43773</x:v>
+        <x:v>43778</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
@@ -851,7 +851,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B7" s="3">
-        <x:v>43773.5376041667</x:v>
+        <x:v>43778.631712963</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
@@ -925,151 +925,71 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F13" s="6" t="n">
-        <x:v>30</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G13" s="6" t="n">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H13" s="6" t="n">
-        <x:v>23.33</x:v>
+        <x:v>39.13</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A14" s="7" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B14" s="6" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C14" s="6" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D14" s="6" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E14" s="6" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F14" s="6" t="n">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G14" s="6" t="n">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H14" s="6" t="n">
-        <x:v>28.57</x:v>
-      </x:c>
+      <x:c r="A14" s="7" t="s"/>
+      <x:c r="B14" s="6" t="s"/>
+      <x:c r="C14" s="6" t="s"/>
+      <x:c r="D14" s="6" t="s"/>
+      <x:c r="E14" s="6" t="s"/>
+      <x:c r="F14" s="6" t="s"/>
+      <x:c r="G14" s="6" t="s"/>
+      <x:c r="H14" s="6" t="s"/>
     </x:row>
     <x:row r="15" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A15" s="7" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B15" s="6" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C15" s="6" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D15" s="6" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E15" s="6" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F15" s="6" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G15" s="6" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H15" s="6" t="n">
-        <x:v>56.25</x:v>
-      </x:c>
+      <x:c r="A15" s="7" t="s"/>
+      <x:c r="B15" s="6" t="s"/>
+      <x:c r="C15" s="6" t="s"/>
+      <x:c r="D15" s="6" t="s"/>
+      <x:c r="E15" s="6" t="s"/>
+      <x:c r="F15" s="6" t="s"/>
+      <x:c r="G15" s="6" t="s"/>
+      <x:c r="H15" s="6" t="s"/>
     </x:row>
     <x:row r="16" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A16" s="7" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B16" s="6" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C16" s="6" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D16" s="6" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E16" s="6" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F16" s="6" t="n">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G16" s="6" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="H16" s="6" t="n">
-        <x:v>52.94</x:v>
-      </x:c>
+      <x:c r="A16" s="7" t="s"/>
+      <x:c r="B16" s="6" t="s"/>
+      <x:c r="C16" s="6" t="s"/>
+      <x:c r="D16" s="6" t="s"/>
+      <x:c r="E16" s="6" t="s"/>
+      <x:c r="F16" s="6" t="s"/>
+      <x:c r="G16" s="6" t="s"/>
+      <x:c r="H16" s="6" t="s"/>
     </x:row>
     <x:row r="17" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A17" s="7" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B17" s="6" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C17" s="6" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D17" s="6" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E17" s="6" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F17" s="6" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G17" s="6" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H17" s="6" t="n">
-        <x:v>60</x:v>
-      </x:c>
+      <x:c r="A17" s="7" t="s"/>
+      <x:c r="B17" s="6" t="s"/>
+      <x:c r="C17" s="6" t="s"/>
+      <x:c r="D17" s="6" t="s"/>
+      <x:c r="E17" s="6" t="s"/>
+      <x:c r="F17" s="6" t="s"/>
+      <x:c r="G17" s="6" t="s"/>
+      <x:c r="H17" s="6" t="s"/>
     </x:row>
     <x:row r="18" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A18" s="7" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B18" s="6" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C18" s="6" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D18" s="6" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E18" s="6" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F18" s="6" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G18" s="6" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H18" s="6" t="n">
-        <x:v>78.57</x:v>
-      </x:c>
+      <x:c r="A18" s="7" t="s"/>
+      <x:c r="B18" s="6" t="s"/>
+      <x:c r="C18" s="6" t="s"/>
+      <x:c r="D18" s="6" t="s"/>
+      <x:c r="E18" s="6" t="s"/>
+      <x:c r="F18" s="6" t="s"/>
+      <x:c r="G18" s="6" t="s"/>
+      <x:c r="H18" s="6" t="s"/>
     </x:row>
     <x:row r="20" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A20" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="B20" s="3" t="n">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
@@ -1077,7 +997,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B21" s="3" t="n">
-        <x:v>11.17</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
@@ -1085,7 +1005,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B22" s="3" t="n">
-        <x:v>49.94</x:v>
+        <x:v>39.13</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">

--- a/TestsSaveExcel/BenGabrant.xlsx
+++ b/TestsSaveExcel/BenGabrant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:loext="http://schemas.libreoffice.org/" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="Calc"/>
-  <x:workbookPr date1904="false" showObjects="all" backupFile="false" codeName="ThisWorkbook"/>
+  <x:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <x:bookViews>
-    <x:workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Resultat" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Resultat" sheetId="1" r:id="rId1"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.0001"/>
+  <x:calcPr calcId="124519"/>
   <x:extLst>
     <x:ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <x:si>
     <x:t>MEMORY CARDS</x:t>
   </x:si>
@@ -97,7 +97,7 @@
     <x:t>Mouvements</x:t>
   </x:si>
   <x:si>
-    <x:t>Personne</x:t>
+    <x:t xml:space="preserve">Personne : </x:t>
   </x:si>
   <x:si>
     <x:t>Moyenne</x:t>
@@ -112,7 +112,28 @@
     <x:t>30-39</x:t>
   </x:si>
   <x:si>
+    <x:t>61,8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64,9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74,6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80,9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84,9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86,3</x:t>
+  </x:si>
+  <x:si>
     <x:t>ALL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75,6</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -120,9 +141,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="1">
-    <x:numFmt numFmtId="164" formatCode="General"/>
+    <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="4">
+  <x:fonts count="1">
     <x:font>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -130,58 +151,260 @@
       <x:family val="2"/>
       <x:charset val="1"/>
     </x:font>
-    <x:font>
-      <x:sz val="10"/>
-      <x:name val="Arial"/>
-      <x:family val="0"/>
-    </x:font>
-    <x:font>
-      <x:sz val="10"/>
-      <x:name val="Arial"/>
-      <x:family val="0"/>
-    </x:font>
-    <x:font>
-      <x:sz val="10"/>
-      <x:name val="Arial"/>
-      <x:family val="0"/>
-    </x:font>
   </x:fonts>
-  <x:fills count="2">
+  <x:fills count="4">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFCC6600"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="0" tint="-0.249977111117893"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
-  <x:borders count="11">
-    <x:border diagonalUp="false" diagonalDown="false">
+  <x:borders count="27">
+    <x:border>
       <x:left/>
       <x:right/>
       <x:top/>
       <x:bottom/>
       <x:diagonal/>
     </x:border>
-    <x:border diagonalUp="false" diagonalDown="false">
+    <x:border>
       <x:left/>
       <x:right/>
-      <x:top style="dashed"/>
+      <x:top style="dashed">
+        <x:color auto="1"/>
+      </x:top>
       <x:bottom/>
       <x:diagonal/>
     </x:border>
-    <x:border diagonalUp="false" diagonalDown="false">
-      <x:left style="hair"/>
-      <x:right style="hair"/>
-      <x:top style="hair"/>
-      <x:bottom style="hair"/>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
       <x:diagonal/>
     </x:border>
-    <x:border diagonalUp="false" diagonalDown="false">
-      <x:left style="thin"/>
-      <x:right style="thin"/>
-      <x:top style="thin"/>
-      <x:bottom style="thin"/>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
       <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top/>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top/>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top/>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right/>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="medium">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="thin">
@@ -190,7 +413,7 @@
       <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
-      <x:top style="thin">
+      <x:top style="medium">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="none">
@@ -207,7 +430,7 @@
       <x:right style="none">
         <x:color rgb="FF000000"/>
       </x:right>
-      <x:top style="thin">
+      <x:top style="medium">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
@@ -224,27 +447,10 @@
       <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
-      <x:top style="thin">
+      <x:top style="medium">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="hair">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="hair">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="hair">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -255,13 +461,47 @@
       <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right style="hair">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="hair">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="hair">
+      <x:right style="medium">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="medium">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -286,12 +526,29 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
+      <x:left style="medium">
         <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="medium">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
       <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
@@ -302,192 +559,415 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="medium">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="31">
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <x:cellStyleXfs count="41">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="28">
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
+  <x:cellXfs count="77">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="right"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <x:alignment horizontal="left"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="right"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="6">
+  <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <x:cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <x:cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <x:cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <x:cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <x:cellStyle name="Percent" xfId="19" builtinId="5"/>
   </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <x:colors>
+    <x:mruColors>
+      <x:color rgb="FFCC6600"/>
+    </x:mruColors>
+  </x:colors>
 </x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -771,562 +1251,554 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr filterMode="false">
+  <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
-    <x:pageSetUpPr fitToPage="false"/>
   </x:sheetPr>
-  <x:dimension ref="A1:R1048576"/>
+  <x:dimension ref="A1:R34"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" defaultGridColor="true" topLeftCell="A1" colorId="64" workbookViewId="0">
-      <x:selection activeCell="A24" sqref="A24"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="K26" sqref="K26 K26:L26"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" zeroHeight="false"/>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="9.85125" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="30.33" style="19" customWidth="1"/>
-    <x:col min="2" max="2" width="11.71" style="19" customWidth="1"/>
-    <x:col min="3" max="3" width="9.63" style="19" customWidth="1"/>
-    <x:col min="4" max="4" width="4.76" style="19" customWidth="1"/>
-    <x:col min="5" max="5" width="9.63" style="19" customWidth="1"/>
-    <x:col min="6" max="6" width="11.99" style="19" customWidth="1"/>
-    <x:col min="7" max="7" width="10.05" style="19" customWidth="1"/>
-    <x:col min="8" max="8" width="6.16" style="19" customWidth="1"/>
-    <x:col min="9" max="9" width="1.39" style="19" customWidth="1"/>
-    <x:col min="10" max="10" width="11.99" style="19" customWidth="1"/>
-    <x:col min="11" max="11" width="7.41" style="19" customWidth="1"/>
-    <x:col min="12" max="12" width="6.16" style="19" customWidth="1"/>
-    <x:col min="13" max="1025" width="8.67" style="19" customWidth="1"/>
+    <x:col min="1" max="1" width="30.285156" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.710938" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.570312" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="4.710938" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.570312" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="10" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="6.140625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="1.425781" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="12" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="7.425781" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="6.140625" style="0" customWidth="1"/>
+    <x:col min="13" max="1025" width="8.710938" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A1" s="8" t="s">
+    <x:row r="1" spans="1:1025">
+      <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="8" t="s"/>
-      <x:c r="C1" s="8" t="s"/>
-      <x:c r="D1" s="8" t="s"/>
-      <x:c r="E1" s="8" t="s"/>
-      <x:c r="F1" s="8" t="s"/>
-      <x:c r="G1" s="8" t="s"/>
-      <x:c r="H1" s="8" t="s"/>
-      <x:c r="I1" s="8" t="s"/>
-      <x:c r="J1" s="8" t="s"/>
-      <x:c r="K1" s="8" t="s"/>
-      <x:c r="L1" s="8" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="B1" s="1" t="s"/>
+      <x:c r="C1" s="1" t="s"/>
+      <x:c r="D1" s="1" t="s"/>
+      <x:c r="E1" s="1" t="s"/>
+      <x:c r="F1" s="1" t="s"/>
+      <x:c r="G1" s="1" t="s"/>
+      <x:c r="H1" s="1" t="s"/>
+      <x:c r="I1" s="1" t="s"/>
+      <x:c r="J1" s="1" t="s"/>
+      <x:c r="K1" s="1" t="s"/>
+      <x:c r="L1" s="1" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:1025">
+      <x:c r="A3" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B3" s="3" t="s">
+      <x:c r="B3" s="4" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A4" s="2" t="s">
+    <x:row r="4" spans="1:1025">
+      <x:c r="A4" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B4" s="3" t="s">
+      <x:c r="B4" s="4" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A5" s="2" t="s">
+    <x:row r="5" spans="1:1025">
+      <x:c r="A5" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B5" s="3" t="n">
+      <x:c r="B5" s="4" t="n">
         <x:v>32</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A6" s="2" t="s">
+    <x:row r="6" spans="1:1025">
+      <x:c r="A6" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B6" s="3">
-        <x:v>43778</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A7" s="2" t="s">
+      <x:c r="B6" s="42">
+        <x:v>43779</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1025">
+      <x:c r="A7" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B7" s="3">
-        <x:v>43778.631712963</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A9" s="4" t="s"/>
-      <x:c r="B9" s="4" t="s"/>
-      <x:c r="C9" s="4" t="s"/>
-      <x:c r="D9" s="4" t="s"/>
-      <x:c r="E9" s="4" t="s"/>
-      <x:c r="F9" s="4" t="s"/>
-      <x:c r="G9" s="4" t="s"/>
-      <x:c r="H9" s="4" t="s"/>
-      <x:c r="I9" s="4" t="s"/>
-      <x:c r="J9" s="4" t="s"/>
-      <x:c r="K9" s="4" t="s"/>
-      <x:c r="L9" s="4" t="s"/>
-      <x:c r="M9" s="0" t="s"/>
-      <x:c r="N9" s="0" t="s"/>
-      <x:c r="O9" s="0" t="s"/>
-      <x:c r="P9" s="0" t="s"/>
-      <x:c r="Q9" s="0" t="s"/>
-      <x:c r="R9" s="0" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A10" s="2" t="s">
+      <x:c r="B7" s="43">
+        <x:v>43779.9560185185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:1025">
+      <x:c r="A9" s="5" t="s"/>
+      <x:c r="B9" s="5" t="s"/>
+      <x:c r="C9" s="5" t="s"/>
+      <x:c r="D9" s="5" t="s"/>
+      <x:c r="E9" s="5" t="s"/>
+      <x:c r="F9" s="5" t="s"/>
+      <x:c r="G9" s="5" t="s"/>
+      <x:c r="H9" s="5" t="s"/>
+      <x:c r="I9" s="5" t="s"/>
+      <x:c r="J9" s="5" t="s"/>
+      <x:c r="K9" s="5" t="s"/>
+      <x:c r="L9" s="5" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:1025">
+      <x:c r="A10" s="3" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A12" s="6" t="s">
+    <x:row r="11" spans="1:1025" customFormat="1" ht="15.75" customHeight="1" thickBot="1"/>
+    <x:row r="12" spans="1:1025">
+      <x:c r="A12" s="44" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B12" s="6" t="s">
+      <x:c r="B12" s="45" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C12" s="6" t="s">
+      <x:c r="C12" s="45" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D12" s="6" t="s">
+      <x:c r="D12" s="45" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E12" s="6" t="s">
+      <x:c r="E12" s="45" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F12" s="6" t="s">
+      <x:c r="F12" s="45" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G12" s="6" t="s">
+      <x:c r="G12" s="45" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="H12" s="6" t="s">
+      <x:c r="H12" s="46" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A13" s="7" t="n">
+    <x:row r="13" spans="1:1025">
+      <x:c r="A13" s="11" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B13" s="6" t="s">
+      <x:c r="B13" s="8" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C13" s="6" t="n">
+      <x:c r="C13" s="8" t="n">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D13" s="6" t="b">
+      <x:c r="D13" s="8" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E13" s="6" t="b">
+      <x:c r="E13" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F13" s="6" t="n">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G13" s="6" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H13" s="6" t="n">
-        <x:v>39.13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A14" s="7" t="s"/>
-      <x:c r="B14" s="6" t="s"/>
-      <x:c r="C14" s="6" t="s"/>
-      <x:c r="D14" s="6" t="s"/>
-      <x:c r="E14" s="6" t="s"/>
-      <x:c r="F14" s="6" t="s"/>
-      <x:c r="G14" s="6" t="s"/>
-      <x:c r="H14" s="6" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A15" s="7" t="s"/>
-      <x:c r="B15" s="6" t="s"/>
-      <x:c r="C15" s="6" t="s"/>
-      <x:c r="D15" s="6" t="s"/>
-      <x:c r="E15" s="6" t="s"/>
-      <x:c r="F15" s="6" t="s"/>
-      <x:c r="G15" s="6" t="s"/>
-      <x:c r="H15" s="6" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A16" s="7" t="s"/>
-      <x:c r="B16" s="6" t="s"/>
-      <x:c r="C16" s="6" t="s"/>
-      <x:c r="D16" s="6" t="s"/>
-      <x:c r="E16" s="6" t="s"/>
-      <x:c r="F16" s="6" t="s"/>
-      <x:c r="G16" s="6" t="s"/>
-      <x:c r="H16" s="6" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A17" s="7" t="s"/>
-      <x:c r="B17" s="6" t="s"/>
-      <x:c r="C17" s="6" t="s"/>
-      <x:c r="D17" s="6" t="s"/>
-      <x:c r="E17" s="6" t="s"/>
-      <x:c r="F17" s="6" t="s"/>
-      <x:c r="G17" s="6" t="s"/>
-      <x:c r="H17" s="6" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A18" s="7" t="s"/>
-      <x:c r="B18" s="6" t="s"/>
-      <x:c r="C18" s="6" t="s"/>
-      <x:c r="D18" s="6" t="s"/>
-      <x:c r="E18" s="6" t="s"/>
-      <x:c r="F18" s="6" t="s"/>
-      <x:c r="G18" s="6" t="s"/>
-      <x:c r="H18" s="6" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="F13" s="8" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G13" s="8" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H13" s="12" t="n">
+        <x:v>34.48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:1025">
+      <x:c r="A14" s="47" t="s"/>
+      <x:c r="B14" s="48" t="s"/>
+      <x:c r="C14" s="48" t="s"/>
+      <x:c r="D14" s="48" t="s"/>
+      <x:c r="E14" s="48" t="s"/>
+      <x:c r="F14" s="48" t="s"/>
+      <x:c r="G14" s="48" t="s"/>
+      <x:c r="H14" s="49" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:1025">
+      <x:c r="A15" s="11" t="s"/>
+      <x:c r="B15" s="8" t="s"/>
+      <x:c r="C15" s="8" t="s"/>
+      <x:c r="D15" s="8" t="s"/>
+      <x:c r="E15" s="8" t="s"/>
+      <x:c r="F15" s="8" t="s"/>
+      <x:c r="G15" s="8" t="s"/>
+      <x:c r="H15" s="12" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:1025">
+      <x:c r="A16" s="47" t="s"/>
+      <x:c r="B16" s="48" t="s"/>
+      <x:c r="C16" s="48" t="s"/>
+      <x:c r="D16" s="48" t="s"/>
+      <x:c r="E16" s="48" t="s"/>
+      <x:c r="F16" s="48" t="s"/>
+      <x:c r="G16" s="48" t="s"/>
+      <x:c r="H16" s="49" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:1025">
+      <x:c r="A17" s="11" t="s"/>
+      <x:c r="B17" s="8" t="s"/>
+      <x:c r="C17" s="8" t="s"/>
+      <x:c r="D17" s="8" t="s"/>
+      <x:c r="E17" s="8" t="s"/>
+      <x:c r="F17" s="8" t="s"/>
+      <x:c r="G17" s="8" t="s"/>
+      <x:c r="H17" s="12" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:1025" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <x:c r="A18" s="50" t="s"/>
+      <x:c r="B18" s="51" t="s"/>
+      <x:c r="C18" s="51" t="s"/>
+      <x:c r="D18" s="51" t="s"/>
+      <x:c r="E18" s="51" t="s"/>
+      <x:c r="F18" s="51" t="s"/>
+      <x:c r="G18" s="51" t="s"/>
+      <x:c r="H18" s="52" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:1025">
       <x:c r="A20" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B20" s="3" t="n">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="B20" s="4" t="n">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:1025">
       <x:c r="A21" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B21" s="3" t="n">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="B21" s="4" t="n">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:1025">
       <x:c r="A22" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B22" s="3" t="n">
-        <x:v>39.13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A24" s="8" t="s">
+      <x:c r="B22" s="4" t="n">
+        <x:v>34.48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:1025">
+      <x:c r="A24" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B24" s="8" t="s"/>
-      <x:c r="C24" s="8" t="s"/>
-      <x:c r="D24" s="8" t="s"/>
-      <x:c r="E24" s="8" t="s"/>
-      <x:c r="F24" s="8" t="s"/>
-      <x:c r="G24" s="8" t="s"/>
-      <x:c r="H24" s="8" t="s"/>
-      <x:c r="I24" s="8" t="s"/>
-      <x:c r="J24" s="8" t="s"/>
-      <x:c r="K24" s="8" t="s"/>
-      <x:c r="L24" s="8" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A26" s="20" t="s">
+      <x:c r="B24" s="1" t="s"/>
+      <x:c r="C24" s="1" t="s"/>
+      <x:c r="D24" s="1" t="s"/>
+      <x:c r="E24" s="1" t="s"/>
+      <x:c r="F24" s="1" t="s"/>
+      <x:c r="G24" s="1" t="s"/>
+      <x:c r="H24" s="1" t="s"/>
+      <x:c r="I24" s="1" t="s"/>
+      <x:c r="J24" s="1" t="s"/>
+      <x:c r="K24" s="1" t="s"/>
+      <x:c r="L24" s="1" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:1025" customFormat="1" ht="15.75" customHeight="1" thickBot="1"/>
+    <x:row r="26" spans="1:1025">
+      <x:c r="A26" s="53" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B26" s="20" t="s">
+      <x:c r="B26" s="54" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C26" s="21" t="s">
+      <x:c r="C26" s="55" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D26" s="22" t="s"/>
-      <x:c r="E26" s="21" t="s">
+      <x:c r="D26" s="56" t="s"/>
+      <x:c r="E26" s="55" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="F26" s="22" t="s"/>
-      <x:c r="G26" s="21" t="s">
+      <x:c r="F26" s="56" t="s"/>
+      <x:c r="G26" s="55" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="H26" s="22" t="s"/>
-      <x:c r="I26" s="0" t="s"/>
-      <x:c r="J26" s="11" t="s">
+      <x:c r="H26" s="57" t="s"/>
+      <x:c r="J26" s="58" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="K26" s="23" t="s"/>
-      <x:c r="L26" s="24" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A27" s="25" t="s"/>
-      <x:c r="B27" s="25" t="s"/>
-      <x:c r="C27" s="13" t="s">
+      <x:c r="K26" s="59" t="s"/>
+      <x:c r="L26" s="57" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:1025">
+      <x:c r="A27" s="60" t="s"/>
+      <x:c r="B27" s="61" t="s"/>
+      <x:c r="C27" s="62" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="D27" s="13" t="s">
+      <x:c r="D27" s="62" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E27" s="13" t="s">
+      <x:c r="E27" s="62" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F27" s="13" t="s">
+      <x:c r="F27" s="62" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="G27" s="13" t="s">
+      <x:c r="G27" s="62" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="H27" s="13" t="s">
+      <x:c r="H27" s="63" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="I27" s="26" t="s"/>
-      <x:c r="J27" s="6" t="s">
+      <x:c r="I27" s="64" t="s"/>
+      <x:c r="J27" s="65" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="K27" s="6" t="s">
+      <x:c r="K27" s="66" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="L27" s="6" t="s">
+      <x:c r="L27" s="67" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A28" s="20" t="s">
+    <x:row r="28" spans="1:1025">
+      <x:c r="A28" s="68" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B28" s="13" t="n">
+      <x:c r="B28" s="8" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C28" s="13" t="n">
-        <x:v>27.6</x:v>
-      </x:c>
-      <x:c r="D28" s="13" t="n">
-        <x:v>4.7</x:v>
-      </x:c>
-      <x:c r="E28" s="13" t="n">
-        <x:v>8.5</x:v>
-      </x:c>
-      <x:c r="F28" s="13" t="n">
+      <x:c r="C28" s="69">
+        <x:v>43643</x:v>
+      </x:c>
+      <x:c r="D28" s="69">
+        <x:v>43650</x:v>
+      </x:c>
+      <x:c r="E28" s="69">
+        <x:v>43593</x:v>
+      </x:c>
+      <x:c r="F28" s="8" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G28" s="13" t="n">
-        <x:v>61.8</x:v>
-      </x:c>
-      <x:c r="H28" s="13" t="n">
-        <x:v>15.2</x:v>
-      </x:c>
-      <x:c r="I28" s="26" t="s"/>
-      <x:c r="J28" s="6" t="n">
+      <x:c r="G28" s="8" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H28" s="70">
+        <x:v>43511</x:v>
+      </x:c>
+      <x:c r="I28" s="64" t="s"/>
+      <x:c r="J28" s="34">
         <x:f>F13</x:f>
       </x:c>
-      <x:c r="K28" s="6" t="n">
+      <x:c r="K28" s="8">
         <x:f>G13</x:f>
       </x:c>
-      <x:c r="L28" s="6" t="n">
+      <x:c r="L28" s="12">
         <x:f>H13</x:f>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A29" s="27" t="s"/>
-      <x:c r="B29" s="13" t="n">
+    <x:row r="29" spans="1:1025">
+      <x:c r="A29" s="71" t="s"/>
+      <x:c r="B29" s="48" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C29" s="13" t="n">
-        <x:v>19.4</x:v>
-      </x:c>
-      <x:c r="D29" s="13" t="n">
+      <x:c r="C29" s="72">
+        <x:v>43574</x:v>
+      </x:c>
+      <x:c r="D29" s="48" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E29" s="13" t="n">
-        <x:v>7.3</x:v>
-      </x:c>
-      <x:c r="F29" s="13" t="n">
+      <x:c r="E29" s="72">
+        <x:v>43531</x:v>
+      </x:c>
+      <x:c r="F29" s="48" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G29" s="13" t="n">
-        <x:v>64.9</x:v>
-      </x:c>
-      <x:c r="H29" s="13" t="n">
+      <x:c r="G29" s="48" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H29" s="49" t="n">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="I29" s="26" t="s"/>
-      <x:c r="J29" s="6" t="n">
+      <x:c r="I29" s="64" t="s"/>
+      <x:c r="J29" s="73">
         <x:f>F14</x:f>
       </x:c>
-      <x:c r="K29" s="6" t="n">
+      <x:c r="K29" s="48">
         <x:f>G14</x:f>
       </x:c>
-      <x:c r="L29" s="6" t="n">
+      <x:c r="L29" s="49">
         <x:f>H14</x:f>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A30" s="27" t="s"/>
-      <x:c r="B30" s="13" t="n">
+    <x:row r="30" spans="1:1025">
+      <x:c r="A30" s="71" t="s"/>
+      <x:c r="B30" s="8" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C30" s="13" t="n">
-        <x:v>17.6</x:v>
-      </x:c>
-      <x:c r="D30" s="13" t="n">
-        <x:v>4.8</x:v>
-      </x:c>
-      <x:c r="E30" s="13" t="n">
-        <x:v>4.8</x:v>
-      </x:c>
-      <x:c r="F30" s="13" t="n">
-        <x:v>3.9</x:v>
-      </x:c>
-      <x:c r="G30" s="13" t="n">
-        <x:v>74.6</x:v>
-      </x:c>
-      <x:c r="H30" s="13" t="n">
-        <x:v>15.5</x:v>
-      </x:c>
-      <x:c r="I30" s="26" t="s"/>
-      <x:c r="J30" s="6" t="n">
+      <x:c r="C30" s="69">
+        <x:v>43633</x:v>
+      </x:c>
+      <x:c r="D30" s="69">
+        <x:v>43681</x:v>
+      </x:c>
+      <x:c r="E30" s="69">
+        <x:v>43681</x:v>
+      </x:c>
+      <x:c r="F30" s="69">
+        <x:v>43711</x:v>
+      </x:c>
+      <x:c r="G30" s="8" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H30" s="70">
+        <x:v>43600</x:v>
+      </x:c>
+      <x:c r="I30" s="64" t="s"/>
+      <x:c r="J30" s="34">
         <x:f>F15</x:f>
       </x:c>
-      <x:c r="K30" s="6" t="n">
+      <x:c r="K30" s="8">
         <x:f>G15</x:f>
       </x:c>
-      <x:c r="L30" s="6" t="n">
+      <x:c r="L30" s="12">
         <x:f>H15</x:f>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A31" s="27" t="s"/>
-      <x:c r="B31" s="13" t="n">
+    <x:row r="31" spans="1:1025">
+      <x:c r="A31" s="71" t="s"/>
+      <x:c r="B31" s="48" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C31" s="13" t="n">
-        <x:v>15.2</x:v>
-      </x:c>
-      <x:c r="D31" s="13" t="n">
-        <x:v>2.3</x:v>
-      </x:c>
-      <x:c r="E31" s="13" t="n">
-        <x:v>3.2</x:v>
-      </x:c>
-      <x:c r="F31" s="13" t="n">
-        <x:v>2.3</x:v>
-      </x:c>
-      <x:c r="G31" s="13" t="n">
-        <x:v>80.9</x:v>
-      </x:c>
-      <x:c r="H31" s="13" t="n">
-        <x:v>11.8</x:v>
-      </x:c>
-      <x:c r="I31" s="26" t="s"/>
-      <x:c r="J31" s="6" t="n">
+      <x:c r="C31" s="72">
+        <x:v>43511</x:v>
+      </x:c>
+      <x:c r="D31" s="72">
+        <x:v>43526</x:v>
+      </x:c>
+      <x:c r="E31" s="72">
+        <x:v>43499</x:v>
+      </x:c>
+      <x:c r="F31" s="72">
+        <x:v>43526</x:v>
+      </x:c>
+      <x:c r="G31" s="48" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H31" s="74">
+        <x:v>43688</x:v>
+      </x:c>
+      <x:c r="I31" s="64" t="s"/>
+      <x:c r="J31" s="73">
         <x:f>F16</x:f>
       </x:c>
-      <x:c r="K31" s="6" t="n">
+      <x:c r="K31" s="48">
         <x:f>G16</x:f>
       </x:c>
-      <x:c r="L31" s="6" t="n">
+      <x:c r="L31" s="49">
         <x:f>H16</x:f>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A32" s="27" t="s"/>
-      <x:c r="B32" s="13" t="n">
+    <x:row r="32" spans="1:1025">
+      <x:c r="A32" s="71" t="s"/>
+      <x:c r="B32" s="8" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C32" s="13" t="n">
-        <x:v>14.4</x:v>
-      </x:c>
-      <x:c r="D32" s="13" t="n">
-        <x:v>1.9</x:v>
-      </x:c>
-      <x:c r="E32" s="13" t="n">
-        <x:v>2.4</x:v>
-      </x:c>
-      <x:c r="F32" s="13" t="n">
-        <x:v>1.9</x:v>
-      </x:c>
-      <x:c r="G32" s="13" t="n">
-        <x:v>84.9</x:v>
-      </x:c>
-      <x:c r="H32" s="13" t="n">
-        <x:v>10.4</x:v>
-      </x:c>
-      <x:c r="I32" s="26" t="s"/>
-      <x:c r="J32" s="6" t="n">
+      <x:c r="C32" s="69">
+        <x:v>43569</x:v>
+      </x:c>
+      <x:c r="D32" s="69">
+        <x:v>43709</x:v>
+      </x:c>
+      <x:c r="E32" s="69">
+        <x:v>43557</x:v>
+      </x:c>
+      <x:c r="F32" s="69">
+        <x:v>43709</x:v>
+      </x:c>
+      <x:c r="G32" s="8" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H32" s="70">
+        <x:v>43565</x:v>
+      </x:c>
+      <x:c r="I32" s="64" t="s"/>
+      <x:c r="J32" s="34">
         <x:f>F17</x:f>
       </x:c>
-      <x:c r="K32" s="6" t="n">
+      <x:c r="K32" s="8">
         <x:f>G17</x:f>
       </x:c>
-      <x:c r="L32" s="6" t="n">
+      <x:c r="L32" s="12">
         <x:f>H17</x:f>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A33" s="27" t="s"/>
-      <x:c r="B33" s="13" t="n">
+    <x:row r="33" spans="1:1025">
+      <x:c r="A33" s="71" t="s"/>
+      <x:c r="B33" s="48" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C33" s="13" t="n">
-        <x:v>14.1</x:v>
-      </x:c>
-      <x:c r="D33" s="13" t="n">
-        <x:v>1.5</x:v>
-      </x:c>
-      <x:c r="E33" s="13" t="n">
-        <x:v>2.1</x:v>
-      </x:c>
-      <x:c r="F33" s="13" t="n">
-        <x:v>1.5</x:v>
-      </x:c>
-      <x:c r="G33" s="13" t="n">
-        <x:v>86.3</x:v>
-      </x:c>
-      <x:c r="H33" s="13" t="n">
-        <x:v>8.6</x:v>
-      </x:c>
-      <x:c r="I33" s="26" t="s"/>
-      <x:c r="J33" s="6" t="n">
+      <x:c r="C33" s="72">
+        <x:v>43479</x:v>
+      </x:c>
+      <x:c r="D33" s="72">
+        <x:v>43586</x:v>
+      </x:c>
+      <x:c r="E33" s="72">
+        <x:v>43467</x:v>
+      </x:c>
+      <x:c r="F33" s="72">
+        <x:v>43586</x:v>
+      </x:c>
+      <x:c r="G33" s="48" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H33" s="74">
+        <x:v>43624</x:v>
+      </x:c>
+      <x:c r="I33" s="64" t="s"/>
+      <x:c r="J33" s="73">
         <x:f>F18</x:f>
       </x:c>
-      <x:c r="K33" s="6" t="n">
+      <x:c r="K33" s="48">
         <x:f>G18</x:f>
       </x:c>
-      <x:c r="L33" s="6" t="n">
+      <x:c r="L33" s="49">
         <x:f>H18</x:f>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:1025" s="19" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A34" s="25" t="s"/>
-      <x:c r="B34" s="13" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C34" s="13" t="n">
+    <x:row r="34" spans="1:1025" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <x:c r="A34" s="75" t="s"/>
+      <x:c r="B34" s="31" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C34" s="31" t="n">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D34" s="13" t="n">
-        <x:v>2.6</x:v>
-      </x:c>
-      <x:c r="E34" s="13" t="n">
-        <x:v>4.7</x:v>
-      </x:c>
-      <x:c r="F34" s="13" t="n">
-        <x:v>2.5</x:v>
-      </x:c>
-      <x:c r="G34" s="13" t="n">
-        <x:v>75.6</x:v>
-      </x:c>
-      <x:c r="H34" s="13" t="n">
+      <x:c r="D34" s="76">
+        <x:v>43618</x:v>
+      </x:c>
+      <x:c r="E34" s="76">
+        <x:v>43650</x:v>
+      </x:c>
+      <x:c r="F34" s="76">
+        <x:v>43587</x:v>
+      </x:c>
+      <x:c r="G34" s="31" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H34" s="32" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="I34" s="26" t="s"/>
-      <x:c r="J34" s="6" t="n">
+      <x:c r="I34" s="64" t="s"/>
+      <x:c r="J34" s="36">
         <x:f>B20</x:f>
       </x:c>
-      <x:c r="K34" s="6" t="n">
+      <x:c r="K34" s="31">
         <x:f>B21</x:f>
       </x:c>
-      <x:c r="L34" s="6" t="n">
+      <x:c r="L34" s="32">
         <x:f>B22</x:f>
       </x:c>
     </x:row>
-    <x:row r="1048574" spans="1:1025" s="19" customFormat="1" ht="12.8" customHeight="1" outlineLevel="0"/>
-    <x:row r="1048575" spans="1:1025" s="19" customFormat="1" ht="12.8" customHeight="1" outlineLevel="0"/>
-    <x:row r="1048576" spans="1:1025" s="19" customFormat="1" ht="12.8" customHeight="1" outlineLevel="0"/>
   </x:sheetData>
   <x:mergeCells count="9">
+    <x:mergeCell ref="A28:A34"/>
     <x:mergeCell ref="A1:L1"/>
     <x:mergeCell ref="A24:L24"/>
     <x:mergeCell ref="A26:A27"/>
@@ -1335,15 +1807,11 @@
     <x:mergeCell ref="E26:F26"/>
     <x:mergeCell ref="G26:H26"/>
     <x:mergeCell ref="K26:L26"/>
-    <x:mergeCell ref="A28:A34"/>
   </x:mergeCells>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="true"/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.511805555555555" footer="0.511805555555555"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <x:headerFooter differentOddEven="false" differentFirst="false">
-    <x:oddHeader/>
-    <x:oddFooter/>
-  </x:headerFooter>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" horizontalDpi="300" verticalDpi="300"/>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/TestsSaveExcel/BenGabrant.xlsx
+++ b/TestsSaveExcel/BenGabrant.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <x:si>
     <x:t>MEMORY CARDS</x:t>
   </x:si>
@@ -79,6 +79,12 @@
     <x:t>Couleurs</x:t>
   </x:si>
   <x:si>
+    <x:t>Non</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oui</x:t>
+  </x:si>
+  <x:si>
     <x:t>Moyenne des mouvements</x:t>
   </x:si>
   <x:si>
@@ -112,28 +118,7 @@
     <x:t>30-39</x:t>
   </x:si>
   <x:si>
-    <x:t>61,8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64,9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74,6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80,9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84,9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86,3</x:t>
-  </x:si>
-  <x:si>
     <x:t>ALL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75,6</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -141,7 +126,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
+    <x:numFmt numFmtId="164" formatCode="0.0"/>
   </x:numFmts>
   <x:fonts count="1">
     <x:font>
@@ -577,7 +562,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="41">
+  <x:cellStyleXfs count="50">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -597,6 +582,90 @@
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -606,6 +675,12 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -615,99 +690,30 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="49" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="77">
+  <x:cellXfs count="89">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="right"/>
     </x:xf>
@@ -726,7 +732,6 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
@@ -738,80 +743,123 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="right"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="right"/>
+    <x:xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <x:xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <x:xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -833,8 +881,112 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -845,112 +997,8 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="49" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -1257,7 +1305,7 @@
   <x:dimension ref="A1:R34"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="K26" sqref="K26 K26:L26"/>
+      <x:selection activeCell="A13" sqref="A13 A13:E18"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr baseColWidth="10" defaultColWidth="9.85125" defaultRowHeight="15"/>
@@ -1278,77 +1326,77 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1025">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="27" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="1" t="s"/>
-      <x:c r="C1" s="1" t="s"/>
-      <x:c r="D1" s="1" t="s"/>
-      <x:c r="E1" s="1" t="s"/>
-      <x:c r="F1" s="1" t="s"/>
-      <x:c r="G1" s="1" t="s"/>
-      <x:c r="H1" s="1" t="s"/>
-      <x:c r="I1" s="1" t="s"/>
-      <x:c r="J1" s="1" t="s"/>
-      <x:c r="K1" s="1" t="s"/>
-      <x:c r="L1" s="1" t="s"/>
+      <x:c r="B1" s="27" t="s"/>
+      <x:c r="C1" s="27" t="s"/>
+      <x:c r="D1" s="27" t="s"/>
+      <x:c r="E1" s="27" t="s"/>
+      <x:c r="F1" s="27" t="s"/>
+      <x:c r="G1" s="27" t="s"/>
+      <x:c r="H1" s="27" t="s"/>
+      <x:c r="I1" s="27" t="s"/>
+      <x:c r="J1" s="27" t="s"/>
+      <x:c r="K1" s="27" t="s"/>
+      <x:c r="L1" s="27" t="s"/>
     </x:row>
     <x:row r="3" spans="1:1025">
-      <x:c r="A3" s="3" t="s">
+      <x:c r="A3" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B3" s="4" t="s">
+      <x:c r="B3" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1025">
-      <x:c r="A4" s="3" t="s">
+      <x:c r="A4" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B4" s="4" t="s">
+      <x:c r="B4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1025">
-      <x:c r="A5" s="3" t="s">
+      <x:c r="A5" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B5" s="4" t="n">
+      <x:c r="B5" s="2" t="n">
         <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1025">
-      <x:c r="A6" s="3" t="s">
+      <x:c r="A6" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B6" s="42">
-        <x:v>43779</x:v>
+      <x:c r="B6" s="54">
+        <x:v>43780</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1025">
-      <x:c r="A7" s="3" t="s">
+      <x:c r="A7" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B7" s="43">
-        <x:v>43779.9560185185</x:v>
+      <x:c r="B7" s="55">
+        <x:v>43780.3883333333</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1025">
-      <x:c r="A9" s="5" t="s"/>
-      <x:c r="B9" s="5" t="s"/>
-      <x:c r="C9" s="5" t="s"/>
-      <x:c r="D9" s="5" t="s"/>
-      <x:c r="E9" s="5" t="s"/>
-      <x:c r="F9" s="5" t="s"/>
-      <x:c r="G9" s="5" t="s"/>
-      <x:c r="H9" s="5" t="s"/>
-      <x:c r="I9" s="5" t="s"/>
-      <x:c r="J9" s="5" t="s"/>
-      <x:c r="K9" s="5" t="s"/>
-      <x:c r="L9" s="5" t="s"/>
+      <x:c r="A9" s="3" t="s"/>
+      <x:c r="B9" s="3" t="s"/>
+      <x:c r="C9" s="3" t="s"/>
+      <x:c r="D9" s="3" t="s"/>
+      <x:c r="E9" s="3" t="s"/>
+      <x:c r="F9" s="3" t="s"/>
+      <x:c r="G9" s="3" t="s"/>
+      <x:c r="H9" s="3" t="s"/>
+      <x:c r="I9" s="3" t="s"/>
+      <x:c r="J9" s="3" t="s"/>
+      <x:c r="K9" s="3" t="s"/>
+      <x:c r="L9" s="3" t="s"/>
     </x:row>
     <x:row r="10" spans="1:1025">
-      <x:c r="A10" s="3" t="s">
+      <x:c r="A10" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
@@ -1357,442 +1405,442 @@
     </x:row>
     <x:row r="11" spans="1:1025" customFormat="1" ht="15.75" customHeight="1" thickBot="1"/>
     <x:row r="12" spans="1:1025">
-      <x:c r="A12" s="44" t="s">
+      <x:c r="A12" s="56" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B12" s="45" t="s">
+      <x:c r="B12" s="57" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C12" s="45" t="s">
+      <x:c r="C12" s="57" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D12" s="45" t="s">
+      <x:c r="D12" s="57" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E12" s="45" t="s">
+      <x:c r="E12" s="57" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F12" s="45" t="s">
+      <x:c r="F12" s="57" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G12" s="45" t="s">
+      <x:c r="G12" s="57" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="H12" s="46" t="s">
+      <x:c r="H12" s="58" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1025">
-      <x:c r="A13" s="11" t="n">
+      <x:c r="A13" s="48" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B13" s="8" t="s">
+      <x:c r="B13" s="49" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C13" s="8" t="n">
+      <x:c r="C13" s="49" t="n">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D13" s="8" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E13" s="8" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F13" s="8" t="n">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="G13" s="8" t="n">
+      <x:c r="D13" s="49" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="H13" s="12" t="n">
-        <x:v>34.48</x:v>
+      <x:c r="E13" s="49" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F13" s="41" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G13" s="41" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H13" s="36" t="n">
+        <x:v>28.12</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1025">
-      <x:c r="A14" s="47" t="s"/>
-      <x:c r="B14" s="48" t="s"/>
-      <x:c r="C14" s="48" t="s"/>
-      <x:c r="D14" s="48" t="s"/>
-      <x:c r="E14" s="48" t="s"/>
-      <x:c r="F14" s="48" t="s"/>
-      <x:c r="G14" s="48" t="s"/>
-      <x:c r="H14" s="49" t="s"/>
+      <x:c r="A14" s="59" t="s"/>
+      <x:c r="B14" s="60" t="s"/>
+      <x:c r="C14" s="60" t="s"/>
+      <x:c r="D14" s="60" t="s"/>
+      <x:c r="E14" s="60" t="s"/>
+      <x:c r="F14" s="61" t="s"/>
+      <x:c r="G14" s="61" t="s"/>
+      <x:c r="H14" s="62" t="s"/>
     </x:row>
     <x:row r="15" spans="1:1025">
-      <x:c r="A15" s="11" t="s"/>
-      <x:c r="B15" s="8" t="s"/>
-      <x:c r="C15" s="8" t="s"/>
-      <x:c r="D15" s="8" t="s"/>
-      <x:c r="E15" s="8" t="s"/>
-      <x:c r="F15" s="8" t="s"/>
-      <x:c r="G15" s="8" t="s"/>
-      <x:c r="H15" s="12" t="s"/>
+      <x:c r="A15" s="48" t="s"/>
+      <x:c r="B15" s="49" t="s"/>
+      <x:c r="C15" s="49" t="s"/>
+      <x:c r="D15" s="49" t="s"/>
+      <x:c r="E15" s="49" t="s"/>
+      <x:c r="F15" s="41" t="s"/>
+      <x:c r="G15" s="41" t="s"/>
+      <x:c r="H15" s="36" t="s"/>
     </x:row>
     <x:row r="16" spans="1:1025">
-      <x:c r="A16" s="47" t="s"/>
-      <x:c r="B16" s="48" t="s"/>
-      <x:c r="C16" s="48" t="s"/>
-      <x:c r="D16" s="48" t="s"/>
-      <x:c r="E16" s="48" t="s"/>
-      <x:c r="F16" s="48" t="s"/>
-      <x:c r="G16" s="48" t="s"/>
-      <x:c r="H16" s="49" t="s"/>
+      <x:c r="A16" s="59" t="s"/>
+      <x:c r="B16" s="60" t="s"/>
+      <x:c r="C16" s="60" t="s"/>
+      <x:c r="D16" s="60" t="s"/>
+      <x:c r="E16" s="60" t="s"/>
+      <x:c r="F16" s="61" t="s"/>
+      <x:c r="G16" s="61" t="s"/>
+      <x:c r="H16" s="62" t="s"/>
     </x:row>
     <x:row r="17" spans="1:1025">
-      <x:c r="A17" s="11" t="s"/>
-      <x:c r="B17" s="8" t="s"/>
-      <x:c r="C17" s="8" t="s"/>
-      <x:c r="D17" s="8" t="s"/>
-      <x:c r="E17" s="8" t="s"/>
-      <x:c r="F17" s="8" t="s"/>
-      <x:c r="G17" s="8" t="s"/>
-      <x:c r="H17" s="12" t="s"/>
+      <x:c r="A17" s="48" t="s"/>
+      <x:c r="B17" s="49" t="s"/>
+      <x:c r="C17" s="49" t="s"/>
+      <x:c r="D17" s="49" t="s"/>
+      <x:c r="E17" s="49" t="s"/>
+      <x:c r="F17" s="41" t="s"/>
+      <x:c r="G17" s="41" t="s"/>
+      <x:c r="H17" s="36" t="s"/>
     </x:row>
     <x:row r="18" spans="1:1025" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <x:c r="A18" s="50" t="s"/>
-      <x:c r="B18" s="51" t="s"/>
-      <x:c r="C18" s="51" t="s"/>
-      <x:c r="D18" s="51" t="s"/>
-      <x:c r="E18" s="51" t="s"/>
-      <x:c r="F18" s="51" t="s"/>
-      <x:c r="G18" s="51" t="s"/>
-      <x:c r="H18" s="52" t="s"/>
+      <x:c r="A18" s="63" t="s"/>
+      <x:c r="B18" s="64" t="s"/>
+      <x:c r="C18" s="64" t="s"/>
+      <x:c r="D18" s="64" t="s"/>
+      <x:c r="E18" s="64" t="s"/>
+      <x:c r="F18" s="65" t="s"/>
+      <x:c r="G18" s="65" t="s"/>
+      <x:c r="H18" s="66" t="s"/>
     </x:row>
     <x:row r="20" spans="1:1025">
       <x:c r="A20" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B20" s="4" t="n">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="n">
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:1025">
       <x:c r="A21" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B21" s="4" t="n">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="n">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:1025">
       <x:c r="A22" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B22" s="4" t="n">
-        <x:v>34.48</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="n">
+        <x:v>28.12</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:1025">
-      <x:c r="A24" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B24" s="1" t="s"/>
-      <x:c r="C24" s="1" t="s"/>
-      <x:c r="D24" s="1" t="s"/>
-      <x:c r="E24" s="1" t="s"/>
-      <x:c r="F24" s="1" t="s"/>
-      <x:c r="G24" s="1" t="s"/>
-      <x:c r="H24" s="1" t="s"/>
-      <x:c r="I24" s="1" t="s"/>
-      <x:c r="J24" s="1" t="s"/>
-      <x:c r="K24" s="1" t="s"/>
-      <x:c r="L24" s="1" t="s"/>
+      <x:c r="A24" s="27" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B24" s="27" t="s"/>
+      <x:c r="C24" s="27" t="s"/>
+      <x:c r="D24" s="27" t="s"/>
+      <x:c r="E24" s="27" t="s"/>
+      <x:c r="F24" s="27" t="s"/>
+      <x:c r="G24" s="27" t="s"/>
+      <x:c r="H24" s="27" t="s"/>
+      <x:c r="I24" s="27" t="s"/>
+      <x:c r="J24" s="27" t="s"/>
+      <x:c r="K24" s="27" t="s"/>
+      <x:c r="L24" s="27" t="s"/>
     </x:row>
     <x:row r="25" spans="1:1025" customFormat="1" ht="15.75" customHeight="1" thickBot="1"/>
     <x:row r="26" spans="1:1025">
-      <x:c r="A26" s="53" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B26" s="54" t="s">
+      <x:c r="A26" s="67" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B26" s="68" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C26" s="55" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D26" s="56" t="s"/>
-      <x:c r="E26" s="55" t="s">
+      <x:c r="C26" s="69" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D26" s="70" t="s"/>
+      <x:c r="E26" s="69" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="F26" s="56" t="s"/>
-      <x:c r="G26" s="55" t="s">
+      <x:c r="F26" s="70" t="s"/>
+      <x:c r="G26" s="69" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="H26" s="57" t="s"/>
-      <x:c r="J26" s="58" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="K26" s="59" t="s"/>
-      <x:c r="L26" s="57" t="s"/>
+      <x:c r="H26" s="71" t="s"/>
+      <x:c r="J26" s="72" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K26" s="73" t="s"/>
+      <x:c r="L26" s="71" t="s"/>
     </x:row>
     <x:row r="27" spans="1:1025">
-      <x:c r="A27" s="60" t="s"/>
-      <x:c r="B27" s="61" t="s"/>
-      <x:c r="C27" s="62" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D27" s="62" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E27" s="62" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F27" s="62" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G27" s="62" t="s">
+      <x:c r="A27" s="74" t="s"/>
+      <x:c r="B27" s="75" t="s"/>
+      <x:c r="C27" s="76" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="H27" s="63" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I27" s="64" t="s"/>
-      <x:c r="J27" s="65" t="s">
+      <x:c r="D27" s="76" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E27" s="76" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F27" s="76" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G27" s="76" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H27" s="77" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I27" s="78" t="s"/>
+      <x:c r="J27" s="79" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="K27" s="66" t="s">
+      <x:c r="K27" s="80" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="L27" s="67" t="s">
+      <x:c r="L27" s="81" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:1025">
-      <x:c r="A28" s="68" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B28" s="8" t="n">
+      <x:c r="A28" s="82" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B28" s="41" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C28" s="69">
-        <x:v>43643</x:v>
-      </x:c>
-      <x:c r="D28" s="69">
-        <x:v>43650</x:v>
-      </x:c>
-      <x:c r="E28" s="69">
-        <x:v>43593</x:v>
-      </x:c>
-      <x:c r="F28" s="8" t="n">
+      <x:c r="C28" s="35" t="n">
+        <x:v>27.6</x:v>
+      </x:c>
+      <x:c r="D28" s="35" t="n">
+        <x:v>4.7</x:v>
+      </x:c>
+      <x:c r="E28" s="35" t="n">
+        <x:v>8.5</x:v>
+      </x:c>
+      <x:c r="F28" s="35" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G28" s="8" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="H28" s="70">
-        <x:v>43511</x:v>
-      </x:c>
-      <x:c r="I28" s="64" t="s"/>
-      <x:c r="J28" s="34">
+      <x:c r="G28" s="35" t="n">
+        <x:v>61.8</x:v>
+      </x:c>
+      <x:c r="H28" s="36" t="n">
+        <x:v>15.2</x:v>
+      </x:c>
+      <x:c r="I28" s="78" t="s"/>
+      <x:c r="J28" s="19">
         <x:f>F13</x:f>
       </x:c>
-      <x:c r="K28" s="8">
+      <x:c r="K28" s="6">
         <x:f>G13</x:f>
       </x:c>
-      <x:c r="L28" s="12">
+      <x:c r="L28" s="9">
         <x:f>H13</x:f>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:1025">
-      <x:c r="A29" s="71" t="s"/>
-      <x:c r="B29" s="48" t="n">
+      <x:c r="A29" s="83" t="s"/>
+      <x:c r="B29" s="61" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C29" s="72">
-        <x:v>43574</x:v>
-      </x:c>
-      <x:c r="D29" s="48" t="n">
+      <x:c r="C29" s="84" t="n">
+        <x:v>19.4</x:v>
+      </x:c>
+      <x:c r="D29" s="84" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E29" s="72">
-        <x:v>43531</x:v>
-      </x:c>
-      <x:c r="F29" s="48" t="n">
+      <x:c r="E29" s="84" t="n">
+        <x:v>7.3</x:v>
+      </x:c>
+      <x:c r="F29" s="84" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G29" s="48" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H29" s="49" t="n">
+      <x:c r="G29" s="84" t="n">
+        <x:v>64.9</x:v>
+      </x:c>
+      <x:c r="H29" s="62" t="n">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="I29" s="64" t="s"/>
-      <x:c r="J29" s="73">
+      <x:c r="I29" s="78" t="s"/>
+      <x:c r="J29" s="85">
         <x:f>F14</x:f>
       </x:c>
-      <x:c r="K29" s="48">
+      <x:c r="K29" s="86">
         <x:f>G14</x:f>
       </x:c>
-      <x:c r="L29" s="49">
+      <x:c r="L29" s="87">
         <x:f>H14</x:f>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:1025">
-      <x:c r="A30" s="71" t="s"/>
-      <x:c r="B30" s="8" t="n">
+      <x:c r="A30" s="83" t="s"/>
+      <x:c r="B30" s="41" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C30" s="69">
-        <x:v>43633</x:v>
-      </x:c>
-      <x:c r="D30" s="69">
-        <x:v>43681</x:v>
-      </x:c>
-      <x:c r="E30" s="69">
-        <x:v>43681</x:v>
-      </x:c>
-      <x:c r="F30" s="69">
-        <x:v>43711</x:v>
-      </x:c>
-      <x:c r="G30" s="8" t="s">
+      <x:c r="C30" s="35" t="n">
+        <x:v>17.6</x:v>
+      </x:c>
+      <x:c r="D30" s="35" t="n">
+        <x:v>4.8</x:v>
+      </x:c>
+      <x:c r="E30" s="35" t="n">
+        <x:v>4.8</x:v>
+      </x:c>
+      <x:c r="F30" s="35" t="n">
+        <x:v>3.9</x:v>
+      </x:c>
+      <x:c r="G30" s="35" t="n">
+        <x:v>74.6</x:v>
+      </x:c>
+      <x:c r="H30" s="36" t="n">
+        <x:v>15.5</x:v>
+      </x:c>
+      <x:c r="I30" s="78" t="s"/>
+      <x:c r="J30" s="19">
+        <x:f>F15</x:f>
+      </x:c>
+      <x:c r="K30" s="6">
+        <x:f>G15</x:f>
+      </x:c>
+      <x:c r="L30" s="9">
+        <x:f>H15</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:1025">
+      <x:c r="A31" s="83" t="s"/>
+      <x:c r="B31" s="61" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C31" s="84" t="n">
+        <x:v>15.2</x:v>
+      </x:c>
+      <x:c r="D31" s="84" t="n">
+        <x:v>2.3</x:v>
+      </x:c>
+      <x:c r="E31" s="84" t="n">
+        <x:v>3.2</x:v>
+      </x:c>
+      <x:c r="F31" s="84" t="n">
+        <x:v>2.3</x:v>
+      </x:c>
+      <x:c r="G31" s="84" t="n">
+        <x:v>80.9</x:v>
+      </x:c>
+      <x:c r="H31" s="62" t="n">
+        <x:v>11.8</x:v>
+      </x:c>
+      <x:c r="I31" s="78" t="s"/>
+      <x:c r="J31" s="85">
+        <x:f>F16</x:f>
+      </x:c>
+      <x:c r="K31" s="86">
+        <x:f>G16</x:f>
+      </x:c>
+      <x:c r="L31" s="87">
+        <x:f>H16</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:1025">
+      <x:c r="A32" s="83" t="s"/>
+      <x:c r="B32" s="41" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C32" s="35" t="n">
+        <x:v>14.4</x:v>
+      </x:c>
+      <x:c r="D32" s="35" t="n">
+        <x:v>1.9</x:v>
+      </x:c>
+      <x:c r="E32" s="35" t="n">
+        <x:v>2.4</x:v>
+      </x:c>
+      <x:c r="F32" s="35" t="n">
+        <x:v>1.9</x:v>
+      </x:c>
+      <x:c r="G32" s="35" t="n">
+        <x:v>84.9</x:v>
+      </x:c>
+      <x:c r="H32" s="36" t="n">
+        <x:v>10.4</x:v>
+      </x:c>
+      <x:c r="I32" s="78" t="s"/>
+      <x:c r="J32" s="19">
+        <x:f>F17</x:f>
+      </x:c>
+      <x:c r="K32" s="6">
+        <x:f>G17</x:f>
+      </x:c>
+      <x:c r="L32" s="9">
+        <x:f>H17</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:1025">
+      <x:c r="A33" s="83" t="s"/>
+      <x:c r="B33" s="61" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C33" s="84" t="n">
+        <x:v>14.1</x:v>
+      </x:c>
+      <x:c r="D33" s="84" t="n">
+        <x:v>1.5</x:v>
+      </x:c>
+      <x:c r="E33" s="84" t="n">
+        <x:v>2.1</x:v>
+      </x:c>
+      <x:c r="F33" s="84" t="n">
+        <x:v>1.5</x:v>
+      </x:c>
+      <x:c r="G33" s="84" t="n">
+        <x:v>86.3</x:v>
+      </x:c>
+      <x:c r="H33" s="62" t="n">
+        <x:v>8.6</x:v>
+      </x:c>
+      <x:c r="I33" s="78" t="s"/>
+      <x:c r="J33" s="85">
+        <x:f>F18</x:f>
+      </x:c>
+      <x:c r="K33" s="86">
+        <x:f>G18</x:f>
+      </x:c>
+      <x:c r="L33" s="87">
+        <x:f>H18</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:1025" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <x:c r="A34" s="88" t="s"/>
+      <x:c r="B34" s="45" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="H30" s="70">
-        <x:v>43600</x:v>
-      </x:c>
-      <x:c r="I30" s="64" t="s"/>
-      <x:c r="J30" s="34">
-        <x:f>F15</x:f>
-      </x:c>
-      <x:c r="K30" s="8">
-        <x:f>G15</x:f>
-      </x:c>
-      <x:c r="L30" s="12">
-        <x:f>H15</x:f>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:1025">
-      <x:c r="A31" s="71" t="s"/>
-      <x:c r="B31" s="48" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C31" s="72">
-        <x:v>43511</x:v>
-      </x:c>
-      <x:c r="D31" s="72">
-        <x:v>43526</x:v>
-      </x:c>
-      <x:c r="E31" s="72">
-        <x:v>43499</x:v>
-      </x:c>
-      <x:c r="F31" s="72">
-        <x:v>43526</x:v>
-      </x:c>
-      <x:c r="G31" s="48" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H31" s="74">
-        <x:v>43688</x:v>
-      </x:c>
-      <x:c r="I31" s="64" t="s"/>
-      <x:c r="J31" s="73">
-        <x:f>F16</x:f>
-      </x:c>
-      <x:c r="K31" s="48">
-        <x:f>G16</x:f>
-      </x:c>
-      <x:c r="L31" s="49">
-        <x:f>H16</x:f>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:1025">
-      <x:c r="A32" s="71" t="s"/>
-      <x:c r="B32" s="8" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C32" s="69">
-        <x:v>43569</x:v>
-      </x:c>
-      <x:c r="D32" s="69">
-        <x:v>43709</x:v>
-      </x:c>
-      <x:c r="E32" s="69">
-        <x:v>43557</x:v>
-      </x:c>
-      <x:c r="F32" s="69">
-        <x:v>43709</x:v>
-      </x:c>
-      <x:c r="G32" s="8" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="H32" s="70">
-        <x:v>43565</x:v>
-      </x:c>
-      <x:c r="I32" s="64" t="s"/>
-      <x:c r="J32" s="34">
-        <x:f>F17</x:f>
-      </x:c>
-      <x:c r="K32" s="8">
-        <x:f>G17</x:f>
-      </x:c>
-      <x:c r="L32" s="12">
-        <x:f>H17</x:f>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:1025">
-      <x:c r="A33" s="71" t="s"/>
-      <x:c r="B33" s="48" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C33" s="72">
-        <x:v>43479</x:v>
-      </x:c>
-      <x:c r="D33" s="72">
-        <x:v>43586</x:v>
-      </x:c>
-      <x:c r="E33" s="72">
-        <x:v>43467</x:v>
-      </x:c>
-      <x:c r="F33" s="72">
-        <x:v>43586</x:v>
-      </x:c>
-      <x:c r="G33" s="48" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H33" s="74">
-        <x:v>43624</x:v>
-      </x:c>
-      <x:c r="I33" s="64" t="s"/>
-      <x:c r="J33" s="73">
-        <x:f>F18</x:f>
-      </x:c>
-      <x:c r="K33" s="48">
-        <x:f>G18</x:f>
-      </x:c>
-      <x:c r="L33" s="49">
-        <x:f>H18</x:f>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:1025" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <x:c r="A34" s="75" t="s"/>
-      <x:c r="B34" s="31" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C34" s="31" t="n">
+      <x:c r="C34" s="39" t="n">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D34" s="76">
-        <x:v>43618</x:v>
-      </x:c>
-      <x:c r="E34" s="76">
-        <x:v>43650</x:v>
-      </x:c>
-      <x:c r="F34" s="76">
-        <x:v>43587</x:v>
-      </x:c>
-      <x:c r="G34" s="31" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H34" s="32" t="n">
+      <x:c r="D34" s="39" t="n">
+        <x:v>2.6</x:v>
+      </x:c>
+      <x:c r="E34" s="39" t="n">
+        <x:v>4.7</x:v>
+      </x:c>
+      <x:c r="F34" s="39" t="n">
+        <x:v>2.5</x:v>
+      </x:c>
+      <x:c r="G34" s="39" t="n">
+        <x:v>75.6</x:v>
+      </x:c>
+      <x:c r="H34" s="40" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="I34" s="64" t="s"/>
-      <x:c r="J34" s="36">
+      <x:c r="I34" s="78" t="s"/>
+      <x:c r="J34" s="21">
         <x:f>B20</x:f>
       </x:c>
-      <x:c r="K34" s="31">
+      <x:c r="K34" s="17">
         <x:f>B21</x:f>
       </x:c>
-      <x:c r="L34" s="32">
+      <x:c r="L34" s="18">
         <x:f>B22</x:f>
       </x:c>
     </x:row>

--- a/TestsSaveExcel/BenGabrant.xlsx
+++ b/TestsSaveExcel/BenGabrant.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <x:si>
     <x:t>MEMORY CARDS</x:t>
   </x:si>
@@ -79,7 +79,7 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>Couleurs</x:t>
+    <x:t>Abstrait</x:t>
   </x:si>
   <x:si>
     <x:t>24</x:t>
@@ -89,6 +89,24 @@
   </x:si>
   <x:si>
     <x:t>Oui</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NaN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
   </x:si>
   <x:si>
     <x:t>Moyenne des mouvements</x:t>
@@ -1932,7 +1950,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="83">
-        <x:v>43791</x:v>
+        <x:v>43794</x:v>
       </x:c>
       <x:c r="C6" s="83" t="s"/>
       <x:c r="D6" s="83" t="s"/>
@@ -1951,7 +1969,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B7" s="85">
-        <x:v>43791.4534027778</x:v>
+        <x:v>43794.6914236111</x:v>
       </x:c>
       <x:c r="C7" s="85" t="s"/>
       <x:c r="D7" s="85" t="s"/>
@@ -2082,13 +2100,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F13" s="23" t="n">
-        <x:v>32</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G13" s="23" t="n">
-        <x:v>20</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H13" s="24" t="n">
-        <x:v>37.5</x:v>
+        <x:v>83.33</x:v>
       </x:c>
       <x:c r="I13" s="75" t="s"/>
       <x:c r="J13" s="75" t="s"/>
@@ -2097,14 +2115,30 @@
       <x:c r="M13" s="76" t="s"/>
     </x:row>
     <x:row r="14" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A14" s="95" t="s"/>
-      <x:c r="B14" s="96" t="s"/>
-      <x:c r="C14" s="97" t="s"/>
-      <x:c r="D14" s="96" t="s"/>
-      <x:c r="E14" s="96" t="s"/>
-      <x:c r="F14" s="98" t="s"/>
-      <x:c r="G14" s="98" t="s"/>
-      <x:c r="H14" s="99" t="s"/>
+      <x:c r="A14" s="95" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B14" s="96" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C14" s="97" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D14" s="96" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E14" s="96" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F14" s="98" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G14" s="98" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H14" s="99" t="n">
+        <x:v>100</x:v>
+      </x:c>
       <x:c r="I14" s="75" t="s"/>
       <x:c r="J14" s="75" t="s"/>
       <x:c r="K14" s="75" t="s"/>
@@ -2112,14 +2146,30 @@
       <x:c r="M14" s="76" t="s"/>
     </x:row>
     <x:row r="15" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A15" s="21" t="s"/>
-      <x:c r="B15" s="22" t="s"/>
-      <x:c r="C15" s="22" t="s"/>
-      <x:c r="D15" s="22" t="s"/>
-      <x:c r="E15" s="22" t="s"/>
-      <x:c r="F15" s="23" t="s"/>
-      <x:c r="G15" s="23" t="s"/>
-      <x:c r="H15" s="24" t="s"/>
+      <x:c r="A15" s="21" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B15" s="22" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C15" s="22" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D15" s="22" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E15" s="22" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F15" s="23" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G15" s="23" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H15" s="24" t="n">
+        <x:v>100</x:v>
+      </x:c>
       <x:c r="I15" s="75" t="s"/>
       <x:c r="J15" s="75" t="s"/>
       <x:c r="K15" s="75" t="s"/>
@@ -2127,14 +2177,30 @@
       <x:c r="M15" s="76" t="s"/>
     </x:row>
     <x:row r="16" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A16" s="95" t="s"/>
-      <x:c r="B16" s="96" t="s"/>
-      <x:c r="C16" s="96" t="s"/>
-      <x:c r="D16" s="96" t="s"/>
-      <x:c r="E16" s="96" t="s"/>
-      <x:c r="F16" s="98" t="s"/>
-      <x:c r="G16" s="98" t="s"/>
-      <x:c r="H16" s="99" t="s"/>
+      <x:c r="A16" s="95" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B16" s="96" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C16" s="96" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D16" s="96" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E16" s="96" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F16" s="98" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G16" s="98" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H16" s="99" t="n">
+        <x:v>50</x:v>
+      </x:c>
       <x:c r="I16" s="75" t="s"/>
       <x:c r="J16" s="75" t="s"/>
       <x:c r="K16" s="75" t="s"/>
@@ -2142,14 +2208,30 @@
       <x:c r="M16" s="76" t="s"/>
     </x:row>
     <x:row r="17" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A17" s="21" t="s"/>
-      <x:c r="B17" s="22" t="s"/>
-      <x:c r="C17" s="22" t="s"/>
-      <x:c r="D17" s="22" t="s"/>
-      <x:c r="E17" s="22" t="s"/>
-      <x:c r="F17" s="23" t="s"/>
-      <x:c r="G17" s="23" t="s"/>
-      <x:c r="H17" s="24" t="s"/>
+      <x:c r="A17" s="21" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B17" s="22" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C17" s="22" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D17" s="22" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E17" s="22" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F17" s="23" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G17" s="23" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H17" s="24" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="I17" s="75" t="s"/>
       <x:c r="J17" s="75" t="s"/>
       <x:c r="K17" s="75" t="s"/>
@@ -2157,14 +2239,30 @@
       <x:c r="M17" s="76" t="s"/>
     </x:row>
     <x:row r="18" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A18" s="100" t="s"/>
-      <x:c r="B18" s="101" t="s"/>
-      <x:c r="C18" s="101" t="s"/>
-      <x:c r="D18" s="101" t="s"/>
-      <x:c r="E18" s="101" t="s"/>
-      <x:c r="F18" s="102" t="s"/>
-      <x:c r="G18" s="102" t="s"/>
-      <x:c r="H18" s="103" t="s"/>
+      <x:c r="A18" s="100" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B18" s="101" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C18" s="101" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D18" s="101" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E18" s="101" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F18" s="102" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G18" s="102" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H18" s="103" t="n">
+        <x:v>100</x:v>
+      </x:c>
       <x:c r="I18" s="75" t="s"/>
       <x:c r="J18" s="75" t="s"/>
       <x:c r="K18" s="75" t="s"/>
@@ -2188,10 +2286,10 @@
     </x:row>
     <x:row r="20" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A20" s="104" t="s">
-        <x:v>23</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B20" s="78" t="n">
-        <x:v>32</x:v>
+        <x:v>3.17</x:v>
       </x:c>
       <x:c r="C20" s="78" t="s"/>
       <x:c r="D20" s="78" t="s"/>
@@ -2207,10 +2305,10 @@
     </x:row>
     <x:row r="21" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A21" s="74" t="s">
-        <x:v>24</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B21" s="81" t="n">
-        <x:v>20</x:v>
+        <x:v>0.5</x:v>
       </x:c>
       <x:c r="C21" s="81" t="s"/>
       <x:c r="D21" s="81" t="s"/>
@@ -2226,10 +2324,10 @@
     </x:row>
     <x:row r="22" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A22" s="104" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B22" s="78" t="n">
-        <x:v>37.5</x:v>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B22" s="78" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C22" s="78" t="s"/>
       <x:c r="D22" s="78" t="s"/>
@@ -2260,7 +2358,7 @@
     </x:row>
     <x:row r="24" spans="1:1025" s="70" customFormat="1" ht="19.4" customHeight="1" outlineLevel="0">
       <x:c r="A24" s="105" t="s">
-        <x:v>26</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B24" s="106" t="s"/>
       <x:c r="C24" s="106" t="s"/>
@@ -2292,13 +2390,13 @@
     </x:row>
     <x:row r="26" spans="1:1025" s="70" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A26" s="108" t="s">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B26" s="109" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C26" s="110" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D26" s="111" t="s"/>
       <x:c r="E26" s="110" t="s">
@@ -2311,7 +2409,7 @@
       <x:c r="H26" s="112" t="s"/>
       <x:c r="I26" s="113" t="s"/>
       <x:c r="J26" s="114" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="K26" s="115" t="s"/>
       <x:c r="L26" s="112" t="s"/>
@@ -2321,22 +2419,22 @@
       <x:c r="A27" s="116" t="s"/>
       <x:c r="B27" s="117" t="s"/>
       <x:c r="C27" s="118" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D27" s="118" t="s">
-        <x:v>31</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E27" s="118" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F27" s="118" t="s">
-        <x:v>31</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G27" s="118" t="s">
-        <x:v>32</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H27" s="119" t="s">
-        <x:v>31</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I27" s="120" t="s"/>
       <x:c r="J27" s="121" t="s">
@@ -2352,7 +2450,7 @@
     </x:row>
     <x:row r="28" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A28" s="124" t="s">
-        <x:v>33</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B28" s="23" t="n">
         <x:v>1</x:v>
@@ -2565,7 +2663,7 @@
     <x:row r="34" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A34" s="132" t="s"/>
       <x:c r="B34" s="60" t="s">
-        <x:v>34</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C34" s="61" t="n">
         <x:v>18</x:v>

--- a/TestsSaveExcel/BenGabrant.xlsx
+++ b/TestsSaveExcel/BenGabrant.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <x:si>
     <x:t>MEMORY CARDS</x:t>
   </x:si>
@@ -79,7 +79,7 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>Abstrait</x:t>
+    <x:t>Images</x:t>
   </x:si>
   <x:si>
     <x:t>24</x:t>
@@ -101,9 +101,6 @@
   </x:si>
   <x:si>
     <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NaN</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
@@ -1950,7 +1947,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="83">
-        <x:v>43794</x:v>
+        <x:v>43802</x:v>
       </x:c>
       <x:c r="C6" s="83" t="s"/>
       <x:c r="D6" s="83" t="s"/>
@@ -1969,7 +1966,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B7" s="85">
-        <x:v>43794.6914236111</x:v>
+        <x:v>43802.5119444444</x:v>
       </x:c>
       <x:c r="C7" s="85" t="s"/>
       <x:c r="D7" s="85" t="s"/>
@@ -2100,13 +2097,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F13" s="23" t="n">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G13" s="23" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H13" s="24" t="n">
-        <x:v>83.33</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I13" s="75" t="s"/>
       <x:c r="J13" s="75" t="s"/>
@@ -2131,7 +2128,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F14" s="98" t="n">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G14" s="98" t="n">
         <x:v>0</x:v>
@@ -2162,7 +2159,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F15" s="23" t="n">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G15" s="23" t="n">
         <x:v>0</x:v>
@@ -2193,13 +2190,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F16" s="98" t="n">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G16" s="98" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="99" t="n">
-        <x:v>50</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I16" s="75" t="s"/>
       <x:c r="J16" s="75" t="s"/>
@@ -2224,13 +2221,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F17" s="23" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G17" s="23" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H17" s="24" t="s">
-        <x:v>27</x:v>
+      <x:c r="H17" s="24" t="n">
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I17" s="75" t="s"/>
       <x:c r="J17" s="75" t="s"/>
@@ -2240,7 +2237,7 @@
     </x:row>
     <x:row r="18" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A18" s="100" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B18" s="101" t="s">
         <x:v>19</x:v>
@@ -2255,7 +2252,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F18" s="102" t="n">
-        <x:v>1</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G18" s="102" t="n">
         <x:v>0</x:v>
@@ -2286,10 +2283,10 @@
     </x:row>
     <x:row r="20" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A20" s="104" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B20" s="78" t="n">
-        <x:v>3.17</x:v>
+        <x:v>13.67</x:v>
       </x:c>
       <x:c r="C20" s="78" t="s"/>
       <x:c r="D20" s="78" t="s"/>
@@ -2305,10 +2302,10 @@
     </x:row>
     <x:row r="21" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A21" s="74" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B21" s="81" t="n">
-        <x:v>0.5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C21" s="81" t="s"/>
       <x:c r="D21" s="81" t="s"/>
@@ -2324,10 +2321,10 @@
     </x:row>
     <x:row r="22" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A22" s="104" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B22" s="78" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B22" s="78" t="n">
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C22" s="78" t="s"/>
       <x:c r="D22" s="78" t="s"/>
@@ -2358,7 +2355,7 @@
     </x:row>
     <x:row r="24" spans="1:1025" s="70" customFormat="1" ht="19.4" customHeight="1" outlineLevel="0">
       <x:c r="A24" s="105" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B24" s="106" t="s"/>
       <x:c r="C24" s="106" t="s"/>
@@ -2390,13 +2387,13 @@
     </x:row>
     <x:row r="26" spans="1:1025" s="70" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A26" s="108" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B26" s="109" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C26" s="110" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D26" s="111" t="s"/>
       <x:c r="E26" s="110" t="s">
@@ -2409,7 +2406,7 @@
       <x:c r="H26" s="112" t="s"/>
       <x:c r="I26" s="113" t="s"/>
       <x:c r="J26" s="114" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K26" s="115" t="s"/>
       <x:c r="L26" s="112" t="s"/>
@@ -2419,22 +2416,22 @@
       <x:c r="A27" s="116" t="s"/>
       <x:c r="B27" s="117" t="s"/>
       <x:c r="C27" s="118" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D27" s="118" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D27" s="118" t="s">
+      <x:c r="E27" s="118" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F27" s="118" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G27" s="118" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="E27" s="118" t="s">
+      <x:c r="H27" s="119" t="s">
         <x:v>36</x:v>
-      </x:c>
-      <x:c r="F27" s="118" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G27" s="118" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H27" s="119" t="s">
-        <x:v>37</x:v>
       </x:c>
       <x:c r="I27" s="120" t="s"/>
       <x:c r="J27" s="121" t="s">
@@ -2450,7 +2447,7 @@
     </x:row>
     <x:row r="28" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A28" s="124" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B28" s="23" t="n">
         <x:v>1</x:v>
@@ -2663,7 +2660,7 @@
     <x:row r="34" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A34" s="132" t="s"/>
       <x:c r="B34" s="60" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C34" s="61" t="n">
         <x:v>18</x:v>

--- a/TestsSaveExcel/BenGabrant.xlsx
+++ b/TestsSaveExcel/BenGabrant.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <x:si>
     <x:t>MEMORY CARDS</x:t>
   </x:si>
@@ -79,7 +79,7 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>Images</x:t>
+    <x:t>Couleurs</x:t>
   </x:si>
   <x:si>
     <x:t>24</x:t>
@@ -89,21 +89,6 @@
   </x:si>
   <x:si>
     <x:t>Oui</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
   </x:si>
   <x:si>
     <x:t>Moyenne des mouvements</x:t>
@@ -1947,7 +1932,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="83">
-        <x:v>43802</x:v>
+        <x:v>43804</x:v>
       </x:c>
       <x:c r="C6" s="83" t="s"/>
       <x:c r="D6" s="83" t="s"/>
@@ -1966,7 +1951,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B7" s="85">
-        <x:v>43802.5119444444</x:v>
+        <x:v>43804.6590740741</x:v>
       </x:c>
       <x:c r="C7" s="85" t="s"/>
       <x:c r="D7" s="85" t="s"/>
@@ -2097,7 +2082,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F13" s="23" t="n">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G13" s="23" t="n">
         <x:v>0</x:v>
@@ -2112,30 +2097,14 @@
       <x:c r="M13" s="76" t="s"/>
     </x:row>
     <x:row r="14" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A14" s="95" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B14" s="96" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C14" s="97" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D14" s="96" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E14" s="96" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F14" s="98" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G14" s="98" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H14" s="99" t="n">
-        <x:v>100</x:v>
-      </x:c>
+      <x:c r="A14" s="95" t="s"/>
+      <x:c r="B14" s="96" t="s"/>
+      <x:c r="C14" s="97" t="s"/>
+      <x:c r="D14" s="96" t="s"/>
+      <x:c r="E14" s="96" t="s"/>
+      <x:c r="F14" s="98" t="s"/>
+      <x:c r="G14" s="98" t="s"/>
+      <x:c r="H14" s="99" t="s"/>
       <x:c r="I14" s="75" t="s"/>
       <x:c r="J14" s="75" t="s"/>
       <x:c r="K14" s="75" t="s"/>
@@ -2143,30 +2112,14 @@
       <x:c r="M14" s="76" t="s"/>
     </x:row>
     <x:row r="15" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A15" s="21" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B15" s="22" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C15" s="22" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D15" s="22" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E15" s="22" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F15" s="23" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G15" s="23" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H15" s="24" t="n">
-        <x:v>100</x:v>
-      </x:c>
+      <x:c r="A15" s="21" t="s"/>
+      <x:c r="B15" s="22" t="s"/>
+      <x:c r="C15" s="22" t="s"/>
+      <x:c r="D15" s="22" t="s"/>
+      <x:c r="E15" s="22" t="s"/>
+      <x:c r="F15" s="23" t="s"/>
+      <x:c r="G15" s="23" t="s"/>
+      <x:c r="H15" s="24" t="s"/>
       <x:c r="I15" s="75" t="s"/>
       <x:c r="J15" s="75" t="s"/>
       <x:c r="K15" s="75" t="s"/>
@@ -2174,30 +2127,14 @@
       <x:c r="M15" s="76" t="s"/>
     </x:row>
     <x:row r="16" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A16" s="95" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B16" s="96" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C16" s="96" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D16" s="96" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E16" s="96" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F16" s="98" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G16" s="98" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H16" s="99" t="n">
-        <x:v>100</x:v>
-      </x:c>
+      <x:c r="A16" s="95" t="s"/>
+      <x:c r="B16" s="96" t="s"/>
+      <x:c r="C16" s="96" t="s"/>
+      <x:c r="D16" s="96" t="s"/>
+      <x:c r="E16" s="96" t="s"/>
+      <x:c r="F16" s="98" t="s"/>
+      <x:c r="G16" s="98" t="s"/>
+      <x:c r="H16" s="99" t="s"/>
       <x:c r="I16" s="75" t="s"/>
       <x:c r="J16" s="75" t="s"/>
       <x:c r="K16" s="75" t="s"/>
@@ -2205,30 +2142,14 @@
       <x:c r="M16" s="76" t="s"/>
     </x:row>
     <x:row r="17" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A17" s="21" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B17" s="22" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C17" s="22" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D17" s="22" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E17" s="22" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F17" s="23" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G17" s="23" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H17" s="24" t="n">
-        <x:v>100</x:v>
-      </x:c>
+      <x:c r="A17" s="21" t="s"/>
+      <x:c r="B17" s="22" t="s"/>
+      <x:c r="C17" s="22" t="s"/>
+      <x:c r="D17" s="22" t="s"/>
+      <x:c r="E17" s="22" t="s"/>
+      <x:c r="F17" s="23" t="s"/>
+      <x:c r="G17" s="23" t="s"/>
+      <x:c r="H17" s="24" t="s"/>
       <x:c r="I17" s="75" t="s"/>
       <x:c r="J17" s="75" t="s"/>
       <x:c r="K17" s="75" t="s"/>
@@ -2236,30 +2157,14 @@
       <x:c r="M17" s="76" t="s"/>
     </x:row>
     <x:row r="18" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A18" s="100" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B18" s="101" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C18" s="101" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D18" s="101" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E18" s="101" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F18" s="102" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G18" s="102" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H18" s="103" t="n">
-        <x:v>100</x:v>
-      </x:c>
+      <x:c r="A18" s="100" t="s"/>
+      <x:c r="B18" s="101" t="s"/>
+      <x:c r="C18" s="101" t="s"/>
+      <x:c r="D18" s="101" t="s"/>
+      <x:c r="E18" s="101" t="s"/>
+      <x:c r="F18" s="102" t="s"/>
+      <x:c r="G18" s="102" t="s"/>
+      <x:c r="H18" s="103" t="s"/>
       <x:c r="I18" s="75" t="s"/>
       <x:c r="J18" s="75" t="s"/>
       <x:c r="K18" s="75" t="s"/>
@@ -2283,10 +2188,10 @@
     </x:row>
     <x:row r="20" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A20" s="104" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B20" s="78" t="n">
-        <x:v>13.67</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C20" s="78" t="s"/>
       <x:c r="D20" s="78" t="s"/>
@@ -2302,7 +2207,7 @@
     </x:row>
     <x:row r="21" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A21" s="74" t="s">
-        <x:v>29</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B21" s="81" t="n">
         <x:v>0</x:v>
@@ -2321,7 +2226,7 @@
     </x:row>
     <x:row r="22" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A22" s="104" t="s">
-        <x:v>30</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B22" s="78" t="n">
         <x:v>100</x:v>
@@ -2355,7 +2260,7 @@
     </x:row>
     <x:row r="24" spans="1:1025" s="70" customFormat="1" ht="19.4" customHeight="1" outlineLevel="0">
       <x:c r="A24" s="105" t="s">
-        <x:v>31</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B24" s="106" t="s"/>
       <x:c r="C24" s="106" t="s"/>
@@ -2387,13 +2292,13 @@
     </x:row>
     <x:row r="26" spans="1:1025" s="70" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A26" s="108" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B26" s="109" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C26" s="110" t="s">
-        <x:v>33</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D26" s="111" t="s"/>
       <x:c r="E26" s="110" t="s">
@@ -2406,7 +2311,7 @@
       <x:c r="H26" s="112" t="s"/>
       <x:c r="I26" s="113" t="s"/>
       <x:c r="J26" s="114" t="s">
-        <x:v>34</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K26" s="115" t="s"/>
       <x:c r="L26" s="112" t="s"/>
@@ -2416,22 +2321,22 @@
       <x:c r="A27" s="116" t="s"/>
       <x:c r="B27" s="117" t="s"/>
       <x:c r="C27" s="118" t="s">
-        <x:v>35</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D27" s="118" t="s">
-        <x:v>36</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E27" s="118" t="s">
-        <x:v>35</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F27" s="118" t="s">
-        <x:v>36</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G27" s="118" t="s">
-        <x:v>37</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H27" s="119" t="s">
-        <x:v>36</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I27" s="120" t="s"/>
       <x:c r="J27" s="121" t="s">
@@ -2447,7 +2352,7 @@
     </x:row>
     <x:row r="28" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A28" s="124" t="s">
-        <x:v>38</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B28" s="23" t="n">
         <x:v>1</x:v>
@@ -2660,7 +2565,7 @@
     <x:row r="34" spans="1:1025" s="70" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A34" s="132" t="s"/>
       <x:c r="B34" s="60" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C34" s="61" t="n">
         <x:v>18</x:v>
